--- a/crypto_grabber/btcusd.xlsx
+++ b/crypto_grabber/btcusd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="462">
   <si>
     <t>BTC Three month historical prices</t>
   </si>
@@ -52,7 +52,7 @@
     <t>69592.414063</t>
   </si>
   <si>
-    <t>69837.265625</t>
+    <t>69890.851563</t>
   </si>
   <si>
     <t>2024-05-20</t>
@@ -113,6 +113,1293 @@
   </si>
   <si>
     <t>67051.875000</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>66256.109375</t>
+  </si>
+  <si>
+    <t>66712.429688</t>
+  </si>
+  <si>
+    <t>64613.054688</t>
+  </si>
+  <si>
+    <t>65231.582031</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>61553.988281</t>
+  </si>
+  <si>
+    <t>66454.453125</t>
+  </si>
+  <si>
+    <t>61330.410156</t>
+  </si>
+  <si>
+    <t>66267.492188</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>62900.773438</t>
+  </si>
+  <si>
+    <t>63092.125000</t>
+  </si>
+  <si>
+    <t>61123.765625</t>
+  </si>
+  <si>
+    <t>61552.789063</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>61451.218750</t>
+  </si>
+  <si>
+    <t>63422.660156</t>
+  </si>
+  <si>
+    <t>60769.839844</t>
+  </si>
+  <si>
+    <t>62901.449219</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>60793.503906</t>
+  </si>
+  <si>
+    <t>61818.156250</t>
+  </si>
+  <si>
+    <t>60632.601563</t>
+  </si>
+  <si>
+    <t>61448.394531</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>60793.355469</t>
+  </si>
+  <si>
+    <t>61451.152344</t>
+  </si>
+  <si>
+    <t>60492.625000</t>
+  </si>
+  <si>
+    <t>60793.710938</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>63055.191406</t>
+  </si>
+  <si>
+    <t>63446.742188</t>
+  </si>
+  <si>
+    <t>60208.781250</t>
+  </si>
+  <si>
+    <t>60792.777344</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>61191.199219</t>
+  </si>
+  <si>
+    <t>63404.914063</t>
+  </si>
+  <si>
+    <t>60648.074219</t>
+  </si>
+  <si>
+    <t>63049.960938</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>62332.640625</t>
+  </si>
+  <si>
+    <t>62986.085938</t>
+  </si>
+  <si>
+    <t>60877.128906</t>
+  </si>
+  <si>
+    <t>61187.941406</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>63162.761719</t>
+  </si>
+  <si>
+    <t>64390.457031</t>
+  </si>
+  <si>
+    <t>62285.980469</t>
+  </si>
+  <si>
+    <t>62334.816406</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>64038.312500</t>
+  </si>
+  <si>
+    <t>65494.902344</t>
+  </si>
+  <si>
+    <t>62746.238281</t>
+  </si>
+  <si>
+    <t>63161.949219</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>63892.453125</t>
+  </si>
+  <si>
+    <t>64610.890625</t>
+  </si>
+  <si>
+    <t>62955.304688</t>
+  </si>
+  <si>
+    <t>64031.132813</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>62891.031250</t>
+  </si>
+  <si>
+    <t>64494.957031</t>
+  </si>
+  <si>
+    <t>62599.351563</t>
+  </si>
+  <si>
+    <t>63891.472656</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>59122.300781</t>
+  </si>
+  <si>
+    <t>63320.503906</t>
+  </si>
+  <si>
+    <t>58848.312500</t>
+  </si>
+  <si>
+    <t>62889.835938</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>58253.703125</t>
+  </si>
+  <si>
+    <t>59602.296875</t>
+  </si>
+  <si>
+    <t>56937.203125</t>
+  </si>
+  <si>
+    <t>59123.433594</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>60609.496094</t>
+  </si>
+  <si>
+    <t>60780.500000</t>
+  </si>
+  <si>
+    <t>56555.292969</t>
+  </si>
+  <si>
+    <t>58254.011719</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>63839.417969</t>
+  </si>
+  <si>
+    <t>64703.332031</t>
+  </si>
+  <si>
+    <t>59120.066406</t>
+  </si>
+  <si>
+    <t>60636.855469</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>63106.363281</t>
+  </si>
+  <si>
+    <t>64174.878906</t>
+  </si>
+  <si>
+    <t>61795.457031</t>
+  </si>
+  <si>
+    <t>63841.121094</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>63423.515625</t>
+  </si>
+  <si>
+    <t>64321.484375</t>
+  </si>
+  <si>
+    <t>62793.597656</t>
+  </si>
+  <si>
+    <t>63113.230469</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>63750.988281</t>
+  </si>
+  <si>
+    <t>63898.363281</t>
+  </si>
+  <si>
+    <t>62424.718750</t>
+  </si>
+  <si>
+    <t>63419.140625</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>64485.371094</t>
+  </si>
+  <si>
+    <t>64789.656250</t>
+  </si>
+  <si>
+    <t>63322.398438</t>
+  </si>
+  <si>
+    <t>63755.320313</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>64275.019531</t>
+  </si>
+  <si>
+    <t>65275.207031</t>
+  </si>
+  <si>
+    <t>62783.632813</t>
+  </si>
+  <si>
+    <t>64481.707031</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>66408.718750</t>
+  </si>
+  <si>
+    <t>67075.367188</t>
+  </si>
+  <si>
+    <t>63589.871094</t>
+  </si>
+  <si>
+    <t>64276.898438</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>66839.890625</t>
+  </si>
+  <si>
+    <t>67199.242188</t>
+  </si>
+  <si>
+    <t>65864.867188</t>
+  </si>
+  <si>
+    <t>66407.273438</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>64935.632813</t>
+  </si>
+  <si>
+    <t>67233.960938</t>
+  </si>
+  <si>
+    <t>64548.179688</t>
+  </si>
+  <si>
+    <t>66837.679688</t>
+  </si>
+  <si>
+    <t>2024-04-21</t>
+  </si>
+  <si>
+    <t>64992.816406</t>
+  </si>
+  <si>
+    <t>65723.242188</t>
+  </si>
+  <si>
+    <t>64277.722656</t>
+  </si>
+  <si>
+    <t>64926.644531</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>63851.101563</t>
+  </si>
+  <si>
+    <t>65442.457031</t>
+  </si>
+  <si>
+    <t>63172.402344</t>
+  </si>
+  <si>
+    <t>64994.441406</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>63510.750000</t>
+  </si>
+  <si>
+    <t>65481.597656</t>
+  </si>
+  <si>
+    <t>59651.390625</t>
+  </si>
+  <si>
+    <t>63843.570313</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>61275.316406</t>
+  </si>
+  <si>
+    <t>64125.687500</t>
+  </si>
+  <si>
+    <t>60833.480469</t>
+  </si>
+  <si>
+    <t>63512.753906</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>63831.847656</t>
+  </si>
+  <si>
+    <t>64486.363281</t>
+  </si>
+  <si>
+    <t>59768.585938</t>
+  </si>
+  <si>
+    <t>61276.691406</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>63419.296875</t>
+  </si>
+  <si>
+    <t>64355.667969</t>
+  </si>
+  <si>
+    <t>61716.402344</t>
+  </si>
+  <si>
+    <t>63811.863281</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>65739.648438</t>
+  </si>
+  <si>
+    <t>66878.648438</t>
+  </si>
+  <si>
+    <t>62332.070313</t>
+  </si>
+  <si>
+    <t>63426.210938</t>
+  </si>
+  <si>
+    <t>2024-04-14</t>
+  </si>
+  <si>
+    <t>63836.230469</t>
+  </si>
+  <si>
+    <t>65824.429688</t>
+  </si>
+  <si>
+    <t>62205.851563</t>
+  </si>
+  <si>
+    <t>65738.726563</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>67188.375000</t>
+  </si>
+  <si>
+    <t>67931.429688</t>
+  </si>
+  <si>
+    <t>60919.105469</t>
+  </si>
+  <si>
+    <t>63821.472656</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>70061.382813</t>
+  </si>
+  <si>
+    <t>71222.742188</t>
+  </si>
+  <si>
+    <t>65254.835938</t>
+  </si>
+  <si>
+    <t>67195.867188</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>70575.734375</t>
+  </si>
+  <si>
+    <t>71256.234375</t>
+  </si>
+  <si>
+    <t>69571.812500</t>
+  </si>
+  <si>
+    <t>70060.609375</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>69140.242188</t>
+  </si>
+  <si>
+    <t>71093.429688</t>
+  </si>
+  <si>
+    <t>67503.562500</t>
+  </si>
+  <si>
+    <t>70587.882813</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>71632.500000</t>
+  </si>
+  <si>
+    <t>71742.507813</t>
+  </si>
+  <si>
+    <t>68212.921875</t>
+  </si>
+  <si>
+    <t>69139.015625</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>69362.554688</t>
+  </si>
+  <si>
+    <t>72715.359375</t>
+  </si>
+  <si>
+    <t>69064.242188</t>
+  </si>
+  <si>
+    <t>71631.359375</t>
+  </si>
+  <si>
+    <t>2024-04-07</t>
+  </si>
+  <si>
+    <t>68897.109375</t>
+  </si>
+  <si>
+    <t>70284.429688</t>
+  </si>
+  <si>
+    <t>68851.632813</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>67840.570313</t>
+  </si>
+  <si>
+    <t>69629.601563</t>
+  </si>
+  <si>
+    <t>67491.718750</t>
+  </si>
+  <si>
+    <t>68896.109375</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>68515.757813</t>
+  </si>
+  <si>
+    <t>68725.757813</t>
+  </si>
+  <si>
+    <t>66011.476563</t>
+  </si>
+  <si>
+    <t>67837.640625</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>65975.695313</t>
+  </si>
+  <si>
+    <t>69291.257813</t>
+  </si>
+  <si>
+    <t>65113.796875</t>
+  </si>
+  <si>
+    <t>68508.843750</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>65446.671875</t>
+  </si>
+  <si>
+    <t>66914.320313</t>
+  </si>
+  <si>
+    <t>64559.898438</t>
+  </si>
+  <si>
+    <t>65980.812500</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>69705.023438</t>
+  </si>
+  <si>
+    <t>69708.382813</t>
+  </si>
+  <si>
+    <t>64586.593750</t>
+  </si>
+  <si>
+    <t>65446.972656</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>71333.484375</t>
+  </si>
+  <si>
+    <t>71342.093750</t>
+  </si>
+  <si>
+    <t>68110.695313</t>
+  </si>
+  <si>
+    <t>69702.148438</t>
+  </si>
+  <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
+    <t>69647.781250</t>
+  </si>
+  <si>
+    <t>71377.781250</t>
+  </si>
+  <si>
+    <t>69624.867188</t>
+  </si>
+  <si>
+    <t>71333.648438</t>
+  </si>
+  <si>
+    <t>2024-03-30</t>
+  </si>
+  <si>
+    <t>69893.445313</t>
+  </si>
+  <si>
+    <t>70355.492188</t>
+  </si>
+  <si>
+    <t>69601.062500</t>
+  </si>
+  <si>
+    <t>69645.304688</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
+  </si>
+  <si>
+    <t>70744.796875</t>
+  </si>
+  <si>
+    <t>70913.093750</t>
+  </si>
+  <si>
+    <t>69076.656250</t>
+  </si>
+  <si>
+    <t>69892.828125</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>69452.773438</t>
+  </si>
+  <si>
+    <t>71546.023438</t>
+  </si>
+  <si>
+    <t>68895.507813</t>
+  </si>
+  <si>
+    <t>70744.953125</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>69991.898438</t>
+  </si>
+  <si>
+    <t>71727.687500</t>
+  </si>
+  <si>
+    <t>68381.929688</t>
+  </si>
+  <si>
+    <t>69455.343750</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>69931.328125</t>
+  </si>
+  <si>
+    <t>71535.742188</t>
+  </si>
+  <si>
+    <t>69335.609375</t>
+  </si>
+  <si>
+    <t>69987.835938</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>67234.093750</t>
+  </si>
+  <si>
+    <t>71162.593750</t>
+  </si>
+  <si>
+    <t>66414.835938</t>
+  </si>
+  <si>
+    <t>69958.812500</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
+    <t>64070.753906</t>
+  </si>
+  <si>
+    <t>67622.757813</t>
+  </si>
+  <si>
+    <t>63825.851563</t>
+  </si>
+  <si>
+    <t>67234.171875</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>63802.722656</t>
+  </si>
+  <si>
+    <t>65976.398438</t>
+  </si>
+  <si>
+    <t>63038.492188</t>
+  </si>
+  <si>
+    <t>64062.203125</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>65489.929688</t>
+  </si>
+  <si>
+    <t>66623.750000</t>
+  </si>
+  <si>
+    <t>62355.371094</t>
+  </si>
+  <si>
+    <t>63778.761719</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>67911.585938</t>
+  </si>
+  <si>
+    <t>68199.992188</t>
+  </si>
+  <si>
+    <t>64580.917969</t>
+  </si>
+  <si>
+    <t>65491.390625</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>61930.156250</t>
+  </si>
+  <si>
+    <t>68115.257813</t>
+  </si>
+  <si>
+    <t>60807.785156</t>
+  </si>
+  <si>
+    <t>67913.671875</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>67556.132813</t>
+  </si>
+  <si>
+    <t>68106.929688</t>
+  </si>
+  <si>
+    <t>61536.179688</t>
+  </si>
+  <si>
+    <t>61912.773438</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>68371.304688</t>
+  </si>
+  <si>
+    <t>68897.132813</t>
+  </si>
+  <si>
+    <t>66594.226563</t>
+  </si>
+  <si>
+    <t>67548.593750</t>
+  </si>
+  <si>
+    <t>2024-03-17</t>
+  </si>
+  <si>
+    <t>65316.343750</t>
+  </si>
+  <si>
+    <t>68845.718750</t>
+  </si>
+  <si>
+    <t>64545.316406</t>
+  </si>
+  <si>
+    <t>68390.625000</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>69392.484375</t>
+  </si>
+  <si>
+    <t>70046.273438</t>
+  </si>
+  <si>
+    <t>64801.394531</t>
+  </si>
+  <si>
+    <t>65315.117188</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>71387.875000</t>
+  </si>
+  <si>
+    <t>72357.132813</t>
+  </si>
+  <si>
+    <t>65630.695313</t>
+  </si>
+  <si>
+    <t>69403.773438</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>73079.375000</t>
+  </si>
+  <si>
+    <t>73750.070313</t>
+  </si>
+  <si>
+    <t>68563.023438</t>
+  </si>
+  <si>
+    <t>71396.593750</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>71482.117188</t>
+  </si>
+  <si>
+    <t>73637.476563</t>
+  </si>
+  <si>
+    <t>71334.093750</t>
+  </si>
+  <si>
+    <t>73083.500000</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>72125.125000</t>
+  </si>
+  <si>
+    <t>72825.656250</t>
+  </si>
+  <si>
+    <t>68728.851563</t>
+  </si>
+  <si>
+    <t>71481.289063</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>69020.546875</t>
+  </si>
+  <si>
+    <t>72850.710938</t>
+  </si>
+  <si>
+    <t>67194.882813</t>
+  </si>
+  <si>
+    <t>72123.906250</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>68500.257813</t>
+  </si>
+  <si>
+    <t>70005.203125</t>
+  </si>
+  <si>
+    <t>68239.976563</t>
+  </si>
+  <si>
+    <t>69019.789063</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>68299.257813</t>
+  </si>
+  <si>
+    <t>68673.054688</t>
+  </si>
+  <si>
+    <t>68053.125000</t>
+  </si>
+  <si>
+    <t>68498.882813</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>66938.093750</t>
+  </si>
+  <si>
+    <t>70083.054688</t>
+  </si>
+  <si>
+    <t>66230.453125</t>
+  </si>
+  <si>
+    <t>68300.093750</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>66099.742188</t>
+  </si>
+  <si>
+    <t>68029.921875</t>
+  </si>
+  <si>
+    <t>65655.531250</t>
+  </si>
+  <si>
+    <t>66925.484375</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>63776.050781</t>
+  </si>
+  <si>
+    <t>67637.929688</t>
+  </si>
+  <si>
+    <t>62848.671875</t>
+  </si>
+  <si>
+    <t>66106.804688</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>68341.054688</t>
+  </si>
+  <si>
+    <t>69170.625000</t>
+  </si>
+  <si>
+    <t>59323.910156</t>
+  </si>
+  <si>
+    <t>63801.199219</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>63137.003906</t>
+  </si>
+  <si>
+    <t>68537.031250</t>
+  </si>
+  <si>
+    <t>62386.519531</t>
+  </si>
+  <si>
+    <t>68330.414063</t>
+  </si>
+  <si>
+    <t>2024-03-03</t>
+  </si>
+  <si>
+    <t>62031.578125</t>
+  </si>
+  <si>
+    <t>63230.210938</t>
+  </si>
+  <si>
+    <t>61435.023438</t>
+  </si>
+  <si>
+    <t>63167.371094</t>
+  </si>
+  <si>
+    <t>2024-03-02</t>
+  </si>
+  <si>
+    <t>62431.652344</t>
+  </si>
+  <si>
+    <t>62458.699219</t>
+  </si>
+  <si>
+    <t>61657.289063</t>
+  </si>
+  <si>
+    <t>62029.847656</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>61168.062500</t>
+  </si>
+  <si>
+    <t>63155.101563</t>
+  </si>
+  <si>
+    <t>60802.527344</t>
+  </si>
+  <si>
+    <t>62440.632813</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>62499.183594</t>
+  </si>
+  <si>
+    <t>63585.644531</t>
+  </si>
+  <si>
+    <t>60498.730469</t>
+  </si>
+  <si>
+    <t>61198.382813</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>57071.097656</t>
+  </si>
+  <si>
+    <t>63913.132813</t>
+  </si>
+  <si>
+    <t>56738.425781</t>
+  </si>
+  <si>
+    <t>62504.789063</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>54519.363281</t>
+  </si>
+  <si>
+    <t>57537.839844</t>
+  </si>
+  <si>
+    <t>54484.199219</t>
+  </si>
+  <si>
+    <t>57085.371094</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>51730.539063</t>
+  </si>
+  <si>
+    <t>54938.175781</t>
+  </si>
+  <si>
+    <t>50931.031250</t>
+  </si>
+  <si>
+    <t>54522.402344</t>
+  </si>
+  <si>
+    <t>2024-02-25</t>
+  </si>
+  <si>
+    <t>51565.214844</t>
+  </si>
+  <si>
+    <t>51950.027344</t>
+  </si>
+  <si>
+    <t>51306.171875</t>
+  </si>
+  <si>
+    <t>51733.238281</t>
+  </si>
+  <si>
+    <t>2024-02-24</t>
+  </si>
+  <si>
+    <t>50736.371094</t>
+  </si>
+  <si>
+    <t>51684.195313</t>
+  </si>
+  <si>
+    <t>50585.445313</t>
+  </si>
+  <si>
+    <t>51571.101563</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>51283.906250</t>
+  </si>
+  <si>
+    <t>51497.933594</t>
+  </si>
+  <si>
+    <t>50561.777344</t>
+  </si>
+  <si>
+    <t>50731.949219</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>51854.644531</t>
+  </si>
+  <si>
+    <t>52009.613281</t>
+  </si>
+  <si>
+    <t>50926.292969</t>
+  </si>
+  <si>
+    <t>51304.972656</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>52273.535156</t>
+  </si>
+  <si>
+    <t>52368.816406</t>
+  </si>
+  <si>
+    <t>50671.757813</t>
+  </si>
+  <si>
+    <t>51839.179688</t>
   </si>
 </sst>
 </file>
@@ -444,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>-0.02227035248048381</v>
+        <v>-0.02152014326476115</v>
       </c>
       <c r="G3">
-        <v>58208264192</v>
+        <v>58145980416</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -591,6 +1878,1984 @@
       </c>
       <c r="G7">
         <v>28031279310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>-0.01546313771913965</v>
+      </c>
+      <c r="G8">
+        <v>31573077994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>0.07657511785397886</v>
+      </c>
+      <c r="G9">
+        <v>39815167074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>-0.0214303306831144</v>
+      </c>
+      <c r="G10">
+        <v>28186271527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>0.02359970230858921</v>
+      </c>
+      <c r="G11">
+        <v>27889181179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>0.01077237834510414</v>
+      </c>
+      <c r="G12">
+        <v>13800459405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>5.847168613293263E-06</v>
+      </c>
+      <c r="G13">
+        <v>13842272968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>-0.03587990158387999</v>
+      </c>
+      <c r="G14">
+        <v>27804954694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <v>0.0303762917335153</v>
+      </c>
+      <c r="G15">
+        <v>25453338161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>-0.01836436267615615</v>
+      </c>
+      <c r="G16">
+        <v>26088172222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17">
+        <v>-0.01310812400324401</v>
+      </c>
+      <c r="G17">
+        <v>25930730982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
+        <v>-0.01368498398517293</v>
+      </c>
+      <c r="G18">
+        <v>28697928697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>0.002170517505857505</v>
+      </c>
+      <c r="G19">
+        <v>18296164805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20">
+        <v>0.01590753699081682</v>
+      </c>
+      <c r="G20">
+        <v>20620477992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21">
+        <v>0.06372443404994765</v>
+      </c>
+      <c r="G21">
+        <v>33172023048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22">
+        <v>0.01493004602872627</v>
+      </c>
+      <c r="G22">
+        <v>32711813559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23">
+        <v>-0.03886328920053794</v>
+      </c>
+      <c r="G23">
+        <v>48439780271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24">
+        <v>-0.05016591005818916</v>
+      </c>
+      <c r="G24">
+        <v>37840840057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25">
+        <v>0.01164316520234698</v>
+      </c>
+      <c r="G25">
+        <v>26635912073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26">
+        <v>-0.004892273046398166</v>
+      </c>
+      <c r="G26">
+        <v>17334827993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27">
+        <v>-0.005205372731435731</v>
+      </c>
+      <c r="G27">
+        <v>19530783039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28">
+        <v>-0.01132118445803487</v>
+      </c>
+      <c r="G28">
+        <v>24139372950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29">
+        <v>0.003215673857560164</v>
+      </c>
+      <c r="G29">
+        <v>32155786816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30">
+        <v>-0.03210151245389004</v>
+      </c>
+      <c r="G30">
+        <v>30276655120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31">
+        <v>-0.006472440079639874</v>
+      </c>
+      <c r="G31">
+        <v>24310975583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32">
+        <v>0.02929126571350249</v>
+      </c>
+      <c r="G32">
+        <v>28282686673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33">
+        <v>-0.001018141367911118</v>
+      </c>
+      <c r="G33">
+        <v>20506644853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34">
+        <v>0.01790634483998521</v>
+      </c>
+      <c r="G34">
+        <v>23097485495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35">
+        <v>0.005240377621111403</v>
+      </c>
+      <c r="G35">
+        <v>49920425401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36">
+        <v>0.03651449933240847</v>
+      </c>
+      <c r="G36">
+        <v>36006307335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37">
+        <v>-0.04002948910033355</v>
+      </c>
+      <c r="G37">
+        <v>41915247049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38">
+        <v>0.006190015111232627</v>
+      </c>
+      <c r="G38">
+        <v>42847528078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39">
+        <v>-0.03519090160912319</v>
+      </c>
+      <c r="G39">
+        <v>43595917654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40">
+        <v>0.02980276372872437</v>
+      </c>
+      <c r="G40">
+        <v>49084320047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41">
+        <v>-0.05011138227409129</v>
+      </c>
+      <c r="G41">
+        <v>52869738185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42">
+        <v>-0.04090007233583037</v>
+      </c>
+      <c r="G42">
+        <v>44129299406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43">
+        <v>-0.007298896774674879</v>
+      </c>
+      <c r="G43">
+        <v>30153382941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44">
+        <v>0.02093774304497953</v>
+      </c>
+      <c r="G44">
+        <v>38318601774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45">
+        <v>-0.03480940041182423</v>
+      </c>
+      <c r="G45">
+        <v>36426900409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46">
+        <v>0.03270935877730152</v>
+      </c>
+      <c r="G46">
+        <v>37261432669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47">
+        <v>0.006755658070741966</v>
+      </c>
+      <c r="G47">
+        <v>21204930369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48">
+        <v>0.01555911244746322</v>
+      </c>
+      <c r="G48">
+        <v>19967785809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49">
+        <v>-0.009897244220092971</v>
+      </c>
+      <c r="G49">
+        <v>33748230056</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50">
+        <v>0.03839517605661147</v>
+      </c>
+      <c r="G50">
+        <v>34439527442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51">
+        <v>0.008161463519797962</v>
+      </c>
+      <c r="G51">
+        <v>34488018367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52">
+        <v>-0.06108671329531046</v>
+      </c>
+      <c r="G52">
+        <v>50705240709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53">
+        <v>-0.02286914695522324</v>
+      </c>
+      <c r="G53">
+        <v>34873527352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54">
+        <v>0.02420561226420981</v>
+      </c>
+      <c r="G54">
+        <v>20050941373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55">
+        <v>-0.003550270327764893</v>
+      </c>
+      <c r="G55">
+        <v>17130241883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56">
+        <v>-0.01204284679063194</v>
+      </c>
+      <c r="G56">
+        <v>25230851763</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57">
+        <v>0.01860515603676394</v>
+      </c>
+      <c r="G57">
+        <v>34374900617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58">
+        <v>-0.007665954202903835</v>
+      </c>
+      <c r="G58">
+        <v>40827113309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" t="s">
+        <v>291</v>
+      </c>
+      <c r="F59">
+        <v>0.000808047187363492</v>
+      </c>
+      <c r="G59">
+        <v>36010437368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60">
+        <v>0.04052584928312508</v>
+      </c>
+      <c r="G60">
+        <v>42700139523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" t="s">
+        <v>301</v>
+      </c>
+      <c r="F61">
+        <v>0.04937382153550351</v>
+      </c>
+      <c r="G61">
+        <v>27206630673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62">
+        <v>0.004066918435425171</v>
+      </c>
+      <c r="G62">
+        <v>24738964812</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+      <c r="E63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63">
+        <v>-0.02612871898247804</v>
+      </c>
+      <c r="G63">
+        <v>41401116964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" t="s">
+        <v>316</v>
+      </c>
+      <c r="F64">
+        <v>-0.03563744359039889</v>
+      </c>
+      <c r="G64">
+        <v>44480350565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65">
+        <v>0.09661715692829365</v>
+      </c>
+      <c r="G65">
+        <v>66792634382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66">
+        <v>-0.08353585588774315</v>
+      </c>
+      <c r="G66">
+        <v>74215844794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" t="s">
+        <v>329</v>
+      </c>
+      <c r="D67" t="s">
+        <v>330</v>
+      </c>
+      <c r="E67" t="s">
+        <v>331</v>
+      </c>
+      <c r="F67">
+        <v>-0.01203298579359124</v>
+      </c>
+      <c r="G67">
+        <v>49261579492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" t="s">
+        <v>334</v>
+      </c>
+      <c r="D68" t="s">
+        <v>335</v>
+      </c>
+      <c r="E68" t="s">
+        <v>336</v>
+      </c>
+      <c r="F68">
+        <v>0.04706756492321262</v>
+      </c>
+      <c r="G68">
+        <v>44716864318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" t="s">
+        <v>341</v>
+      </c>
+      <c r="F69">
+        <v>-0.0587580517360603</v>
+      </c>
+      <c r="G69">
+        <v>46842198371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70">
+        <v>-0.02779325707621916</v>
+      </c>
+      <c r="G70">
+        <v>78320453976</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71">
+        <v>-0.02302676028633255</v>
+      </c>
+      <c r="G71">
+        <v>59594605698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>356</v>
+      </c>
+      <c r="F72">
+        <v>0.02240256549464403</v>
+      </c>
+      <c r="G72">
+        <v>48212536929</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" t="s">
+        <v>359</v>
+      </c>
+      <c r="D73" t="s">
+        <v>360</v>
+      </c>
+      <c r="E73" t="s">
+        <v>361</v>
+      </c>
+      <c r="F73">
+        <v>-0.008926652633184262</v>
+      </c>
+      <c r="G73">
+        <v>62554434520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>362</v>
+      </c>
+      <c r="B74" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" t="s">
+        <v>366</v>
+      </c>
+      <c r="F74">
+        <v>0.04496283375761068</v>
+      </c>
+      <c r="G74">
+        <v>65716656765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>367</v>
+      </c>
+      <c r="B75" t="s">
+        <v>368</v>
+      </c>
+      <c r="C75" t="s">
+        <v>369</v>
+      </c>
+      <c r="D75" t="s">
+        <v>370</v>
+      </c>
+      <c r="E75" t="s">
+        <v>371</v>
+      </c>
+      <c r="F75">
+        <v>0.007584369264978186</v>
+      </c>
+      <c r="G75">
+        <v>35683977532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>372</v>
+      </c>
+      <c r="B76" t="s">
+        <v>373</v>
+      </c>
+      <c r="C76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" t="s">
+        <v>376</v>
+      </c>
+      <c r="F76">
+        <v>0.002922798964325013</v>
+      </c>
+      <c r="G76">
+        <v>21609650379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" t="s">
+        <v>378</v>
+      </c>
+      <c r="C77" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" t="s">
+        <v>380</v>
+      </c>
+      <c r="E77" t="s">
+        <v>381</v>
+      </c>
+      <c r="F77">
+        <v>0.02034715845190926</v>
+      </c>
+      <c r="G77">
+        <v>59202881172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" t="s">
+        <v>385</v>
+      </c>
+      <c r="E78" t="s">
+        <v>386</v>
+      </c>
+      <c r="F78">
+        <v>0.01249236622816818</v>
+      </c>
+      <c r="G78">
+        <v>46989543159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>387</v>
+      </c>
+      <c r="B79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" t="s">
+        <v>389</v>
+      </c>
+      <c r="D79" t="s">
+        <v>390</v>
+      </c>
+      <c r="E79" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79">
+        <v>0.03654591148962116</v>
+      </c>
+      <c r="G79">
+        <v>68750229073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80" t="s">
+        <v>394</v>
+      </c>
+      <c r="D80" t="s">
+        <v>395</v>
+      </c>
+      <c r="E80" t="s">
+        <v>396</v>
+      </c>
+      <c r="F80">
+        <v>-0.06642940308319756</v>
+      </c>
+      <c r="G80">
+        <v>102802940877</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>397</v>
+      </c>
+      <c r="B81" t="s">
+        <v>398</v>
+      </c>
+      <c r="C81" t="s">
+        <v>399</v>
+      </c>
+      <c r="D81" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" t="s">
+        <v>401</v>
+      </c>
+      <c r="F81">
+        <v>0.08225620215891283</v>
+      </c>
+      <c r="G81">
+        <v>70670471105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>402</v>
+      </c>
+      <c r="B82" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" t="s">
+        <v>404</v>
+      </c>
+      <c r="D82" t="s">
+        <v>405</v>
+      </c>
+      <c r="E82" t="s">
+        <v>406</v>
+      </c>
+      <c r="F82">
+        <v>0.01830991574503016</v>
+      </c>
+      <c r="G82">
+        <v>26253811450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>407</v>
+      </c>
+      <c r="B83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" t="s">
+        <v>409</v>
+      </c>
+      <c r="D83" t="s">
+        <v>410</v>
+      </c>
+      <c r="E83" t="s">
+        <v>411</v>
+      </c>
+      <c r="F83">
+        <v>-0.006435913081173195</v>
+      </c>
+      <c r="G83">
+        <v>23888473685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>412</v>
+      </c>
+      <c r="B84" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" t="s">
+        <v>414</v>
+      </c>
+      <c r="D84" t="s">
+        <v>415</v>
+      </c>
+      <c r="E84" t="s">
+        <v>416</v>
+      </c>
+      <c r="F84">
+        <v>0.02080448948338032</v>
+      </c>
+      <c r="G84">
+        <v>40186368423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>417</v>
+      </c>
+      <c r="B85" t="s">
+        <v>418</v>
+      </c>
+      <c r="C85" t="s">
+        <v>419</v>
+      </c>
+      <c r="D85" t="s">
+        <v>420</v>
+      </c>
+      <c r="E85" t="s">
+        <v>421</v>
+      </c>
+      <c r="F85">
+        <v>-0.02081308436683138</v>
+      </c>
+      <c r="G85">
+        <v>65496611844</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>422</v>
+      </c>
+      <c r="B86" t="s">
+        <v>423</v>
+      </c>
+      <c r="C86" t="s">
+        <v>424</v>
+      </c>
+      <c r="D86" t="s">
+        <v>425</v>
+      </c>
+      <c r="E86" t="s">
+        <v>426</v>
+      </c>
+      <c r="F86">
+        <v>0.09520916243370592</v>
+      </c>
+      <c r="G86">
+        <v>83239156760</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>427</v>
+      </c>
+      <c r="B87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C87" t="s">
+        <v>429</v>
+      </c>
+      <c r="D87" t="s">
+        <v>430</v>
+      </c>
+      <c r="E87" t="s">
+        <v>431</v>
+      </c>
+      <c r="F87">
+        <v>0.04706599011023771</v>
+      </c>
+      <c r="G87">
+        <v>49756832031</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>432</v>
+      </c>
+      <c r="B88" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" t="s">
+        <v>434</v>
+      </c>
+      <c r="D88" t="s">
+        <v>435</v>
+      </c>
+      <c r="E88" t="s">
+        <v>436</v>
+      </c>
+      <c r="F88">
+        <v>0.0539693444446796</v>
+      </c>
+      <c r="G88">
+        <v>34074411896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>437</v>
+      </c>
+      <c r="B89" t="s">
+        <v>438</v>
+      </c>
+      <c r="C89" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" t="s">
+        <v>440</v>
+      </c>
+      <c r="E89" t="s">
+        <v>441</v>
+      </c>
+      <c r="F89">
+        <v>0.003258464790815152</v>
+      </c>
+      <c r="G89">
+        <v>15413239245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>442</v>
+      </c>
+      <c r="B90" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90" t="s">
+        <v>445</v>
+      </c>
+      <c r="E90" t="s">
+        <v>446</v>
+      </c>
+      <c r="F90">
+        <v>0.01645230928032815</v>
+      </c>
+      <c r="G90">
+        <v>15174077879</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>447</v>
+      </c>
+      <c r="B91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C91" t="s">
+        <v>449</v>
+      </c>
+      <c r="D91" t="s">
+        <v>450</v>
+      </c>
+      <c r="E91" t="s">
+        <v>451</v>
+      </c>
+      <c r="F91">
+        <v>-0.01076277279482774</v>
+      </c>
+      <c r="G91">
+        <v>21427078270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>452</v>
+      </c>
+      <c r="B92" t="s">
+        <v>453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" t="s">
+        <v>455</v>
+      </c>
+      <c r="E92" t="s">
+        <v>456</v>
+      </c>
+      <c r="F92">
+        <v>-0.01060024381560254</v>
+      </c>
+      <c r="G92">
+        <v>25413900611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" t="s">
+        <v>460</v>
+      </c>
+      <c r="E93" t="s">
+        <v>461</v>
+      </c>
+      <c r="F93">
+        <v>-0.008309280531797802</v>
+      </c>
+      <c r="G93">
+        <v>28624907020</v>
       </c>
     </row>
   </sheetData>

--- a/crypto_grabber/btcusd.xlsx
+++ b/crypto_grabber/btcusd.xlsx
@@ -40,19 +40,34 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>70141.843750</t>
+  </si>
+  <si>
+    <t>70516.140625</t>
+  </si>
+  <si>
+    <t>69323.835938</t>
+  </si>
+  <si>
+    <t>70448.203125</t>
+  </si>
+  <si>
     <t>2024-05-21</t>
   </si>
   <si>
-    <t>71427.992188</t>
-  </si>
-  <si>
-    <t>71785.109375</t>
-  </si>
-  <si>
-    <t>69592.414063</t>
-  </si>
-  <si>
-    <t>69890.851563</t>
+    <t>71443.062500</t>
+  </si>
+  <si>
+    <t>71946.460938</t>
+  </si>
+  <si>
+    <t>69191.125000</t>
+  </si>
+  <si>
+    <t>70136.531250</t>
   </si>
   <si>
     <t>2024-05-20</t>
@@ -1385,21 +1400,6 @@
   </si>
   <si>
     <t>51304.972656</t>
-  </si>
-  <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
-    <t>52273.535156</t>
-  </si>
-  <si>
-    <t>52368.816406</t>
-  </si>
-  <si>
-    <t>50671.757813</t>
-  </si>
-  <si>
-    <t>51839.179688</t>
   </si>
 </sst>
 </file>
@@ -1782,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>-0.02152014326476115</v>
+        <v>0.004367712033517712</v>
       </c>
       <c r="G3">
-        <v>58145980416</v>
+        <v>33474525184</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1805,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.07799564316318519</v>
+        <v>-0.01828772737730833</v>
       </c>
       <c r="G4">
-        <v>43850655717</v>
+        <v>46932005990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1828,10 +1828,10 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>-0.009853344778875672</v>
+        <v>0.07799564316318519</v>
       </c>
       <c r="G5">
-        <v>19249094538</v>
+        <v>43850655717</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1851,10 +1851,10 @@
         <v>27</v>
       </c>
       <c r="F6">
-        <v>-0.001869887209163146</v>
+        <v>-0.009853344778875672</v>
       </c>
       <c r="G6">
-        <v>16712277406</v>
+        <v>19249094538</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1874,10 +1874,10 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>0.02790958040415314</v>
+        <v>-0.001869887209163146</v>
       </c>
       <c r="G7">
-        <v>28031279310</v>
+        <v>16712277406</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1897,10 +1897,10 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>-0.01546313771913965</v>
+        <v>0.02790958040415314</v>
       </c>
       <c r="G8">
-        <v>31573077994</v>
+        <v>28031279310</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1920,10 +1920,10 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>0.07657511785397886</v>
+        <v>-0.01546313771913965</v>
       </c>
       <c r="G9">
-        <v>39815167074</v>
+        <v>31573077994</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1943,10 +1943,10 @@
         <v>47</v>
       </c>
       <c r="F10">
-        <v>-0.0214303306831144</v>
+        <v>0.07657511785397886</v>
       </c>
       <c r="G10">
-        <v>28186271527</v>
+        <v>39815167074</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1966,10 +1966,10 @@
         <v>52</v>
       </c>
       <c r="F11">
-        <v>0.02359970230858921</v>
+        <v>-0.0214303306831144</v>
       </c>
       <c r="G11">
-        <v>27889181179</v>
+        <v>28186271527</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1989,10 +1989,10 @@
         <v>57</v>
       </c>
       <c r="F12">
-        <v>0.01077237834510414</v>
+        <v>0.02359970230858921</v>
       </c>
       <c r="G12">
-        <v>13800459405</v>
+        <v>27889181179</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2012,10 +2012,10 @@
         <v>62</v>
       </c>
       <c r="F13">
-        <v>5.847168613293263E-06</v>
+        <v>0.01077237834510414</v>
       </c>
       <c r="G13">
-        <v>13842272968</v>
+        <v>13800459405</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2035,10 +2035,10 @@
         <v>67</v>
       </c>
       <c r="F14">
-        <v>-0.03587990158387999</v>
+        <v>5.847168613293263E-06</v>
       </c>
       <c r="G14">
-        <v>27804954694</v>
+        <v>13842272968</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2058,10 +2058,10 @@
         <v>72</v>
       </c>
       <c r="F15">
-        <v>0.0303762917335153</v>
+        <v>-0.03587990158387999</v>
       </c>
       <c r="G15">
-        <v>25453338161</v>
+        <v>27804954694</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2081,10 +2081,10 @@
         <v>77</v>
       </c>
       <c r="F16">
-        <v>-0.01836436267615615</v>
+        <v>0.0303762917335153</v>
       </c>
       <c r="G16">
-        <v>26088172222</v>
+        <v>25453338161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2104,10 +2104,10 @@
         <v>82</v>
       </c>
       <c r="F17">
-        <v>-0.01310812400324401</v>
+        <v>-0.01836436267615615</v>
       </c>
       <c r="G17">
-        <v>25930730982</v>
+        <v>26088172222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2127,10 +2127,10 @@
         <v>87</v>
       </c>
       <c r="F18">
-        <v>-0.01368498398517293</v>
+        <v>-0.01310812400324401</v>
       </c>
       <c r="G18">
-        <v>28697928697</v>
+        <v>25930730982</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2150,10 +2150,10 @@
         <v>92</v>
       </c>
       <c r="F19">
-        <v>0.002170517505857505</v>
+        <v>-0.01368498398517293</v>
       </c>
       <c r="G19">
-        <v>18296164805</v>
+        <v>28697928697</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2173,10 +2173,10 @@
         <v>97</v>
       </c>
       <c r="F20">
-        <v>0.01590753699081682</v>
+        <v>0.002170517505857505</v>
       </c>
       <c r="G20">
-        <v>20620477992</v>
+        <v>18296164805</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2196,10 +2196,10 @@
         <v>102</v>
       </c>
       <c r="F21">
-        <v>0.06372443404994765</v>
+        <v>0.01590753699081682</v>
       </c>
       <c r="G21">
-        <v>33172023048</v>
+        <v>20620477992</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2219,10 +2219,10 @@
         <v>107</v>
       </c>
       <c r="F22">
-        <v>0.01493004602872627</v>
+        <v>0.06372443404994765</v>
       </c>
       <c r="G22">
-        <v>32711813559</v>
+        <v>33172023048</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2242,10 +2242,10 @@
         <v>112</v>
       </c>
       <c r="F23">
-        <v>-0.03886328920053794</v>
+        <v>0.01493004602872627</v>
       </c>
       <c r="G23">
-        <v>48439780271</v>
+        <v>32711813559</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2265,10 +2265,10 @@
         <v>117</v>
       </c>
       <c r="F24">
-        <v>-0.05016591005818916</v>
+        <v>-0.03886328920053794</v>
       </c>
       <c r="G24">
-        <v>37840840057</v>
+        <v>48439780271</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2288,10 +2288,10 @@
         <v>122</v>
       </c>
       <c r="F25">
-        <v>0.01164316520234698</v>
+        <v>-0.05016591005818916</v>
       </c>
       <c r="G25">
-        <v>26635912073</v>
+        <v>37840840057</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2311,10 +2311,10 @@
         <v>127</v>
       </c>
       <c r="F26">
-        <v>-0.004892273046398166</v>
+        <v>0.01164316520234698</v>
       </c>
       <c r="G26">
-        <v>17334827993</v>
+        <v>26635912073</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2334,10 +2334,10 @@
         <v>132</v>
       </c>
       <c r="F27">
-        <v>-0.005205372731435731</v>
+        <v>-0.004892273046398166</v>
       </c>
       <c r="G27">
-        <v>19530783039</v>
+        <v>17334827993</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2357,10 +2357,10 @@
         <v>137</v>
       </c>
       <c r="F28">
-        <v>-0.01132118445803487</v>
+        <v>-0.005205372731435731</v>
       </c>
       <c r="G28">
-        <v>24139372950</v>
+        <v>19530783039</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2380,10 +2380,10 @@
         <v>142</v>
       </c>
       <c r="F29">
-        <v>0.003215673857560164</v>
+        <v>-0.01132118445803487</v>
       </c>
       <c r="G29">
-        <v>32155786816</v>
+        <v>24139372950</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2403,10 +2403,10 @@
         <v>147</v>
       </c>
       <c r="F30">
-        <v>-0.03210151245389004</v>
+        <v>0.003215673857560164</v>
       </c>
       <c r="G30">
-        <v>30276655120</v>
+        <v>32155786816</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2426,10 +2426,10 @@
         <v>152</v>
       </c>
       <c r="F31">
-        <v>-0.006472440079639874</v>
+        <v>-0.03210151245389004</v>
       </c>
       <c r="G31">
-        <v>24310975583</v>
+        <v>30276655120</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2449,10 +2449,10 @@
         <v>157</v>
       </c>
       <c r="F32">
-        <v>0.02929126571350249</v>
+        <v>-0.006472440079639874</v>
       </c>
       <c r="G32">
-        <v>28282686673</v>
+        <v>24310975583</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2472,10 +2472,10 @@
         <v>162</v>
       </c>
       <c r="F33">
-        <v>-0.001018141367911118</v>
+        <v>0.02929126571350249</v>
       </c>
       <c r="G33">
-        <v>20506644853</v>
+        <v>28282686673</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2495,10 +2495,10 @@
         <v>167</v>
       </c>
       <c r="F34">
-        <v>0.01790634483998521</v>
+        <v>-0.001018141367911118</v>
       </c>
       <c r="G34">
-        <v>23097485495</v>
+        <v>20506644853</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2518,10 +2518,10 @@
         <v>172</v>
       </c>
       <c r="F35">
-        <v>0.005240377621111403</v>
+        <v>0.01790634483998521</v>
       </c>
       <c r="G35">
-        <v>49920425401</v>
+        <v>23097485495</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2541,10 +2541,10 @@
         <v>177</v>
       </c>
       <c r="F36">
-        <v>0.03651449933240847</v>
+        <v>0.005240377621111403</v>
       </c>
       <c r="G36">
-        <v>36006307335</v>
+        <v>49920425401</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2564,10 +2564,10 @@
         <v>182</v>
       </c>
       <c r="F37">
-        <v>-0.04002948910033355</v>
+        <v>0.03651449933240847</v>
       </c>
       <c r="G37">
-        <v>41915247049</v>
+        <v>36006307335</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2587,10 +2587,10 @@
         <v>187</v>
       </c>
       <c r="F38">
-        <v>0.006190015111232627</v>
+        <v>-0.04002948910033355</v>
       </c>
       <c r="G38">
-        <v>42847528078</v>
+        <v>41915247049</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2610,10 +2610,10 @@
         <v>192</v>
       </c>
       <c r="F39">
-        <v>-0.03519090160912319</v>
+        <v>0.006190015111232627</v>
       </c>
       <c r="G39">
-        <v>43595917654</v>
+        <v>42847528078</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2633,10 +2633,10 @@
         <v>197</v>
       </c>
       <c r="F40">
-        <v>0.02980276372872437</v>
+        <v>-0.03519090160912319</v>
       </c>
       <c r="G40">
-        <v>49084320047</v>
+        <v>43595917654</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2656,10 +2656,10 @@
         <v>202</v>
       </c>
       <c r="F41">
-        <v>-0.05011138227409129</v>
+        <v>0.02980276372872437</v>
       </c>
       <c r="G41">
-        <v>52869738185</v>
+        <v>49084320047</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2679,10 +2679,10 @@
         <v>207</v>
       </c>
       <c r="F42">
-        <v>-0.04090007233583037</v>
+        <v>-0.05011138227409129</v>
       </c>
       <c r="G42">
-        <v>44129299406</v>
+        <v>52869738185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2702,10 +2702,10 @@
         <v>212</v>
       </c>
       <c r="F43">
-        <v>-0.007298896774674879</v>
+        <v>-0.04090007233583037</v>
       </c>
       <c r="G43">
-        <v>30153382941</v>
+        <v>44129299406</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2725,10 +2725,10 @@
         <v>217</v>
       </c>
       <c r="F44">
-        <v>0.02093774304497953</v>
+        <v>-0.007298896774674879</v>
       </c>
       <c r="G44">
-        <v>38318601774</v>
+        <v>30153382941</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2748,10 +2748,10 @@
         <v>222</v>
       </c>
       <c r="F45">
-        <v>-0.03480940041182423</v>
+        <v>0.02093774304497953</v>
       </c>
       <c r="G45">
-        <v>36426900409</v>
+        <v>38318601774</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2771,10 +2771,10 @@
         <v>227</v>
       </c>
       <c r="F46">
-        <v>0.03270935877730152</v>
+        <v>-0.03480940041182423</v>
       </c>
       <c r="G46">
-        <v>37261432669</v>
+        <v>36426900409</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2791,36 +2791,36 @@
         <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F47">
-        <v>0.006755658070741966</v>
+        <v>0.03270935877730152</v>
       </c>
       <c r="G47">
-        <v>21204930369</v>
+        <v>37261432669</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F48">
-        <v>0.01555911244746322</v>
+        <v>0.006755658070741966</v>
       </c>
       <c r="G48">
-        <v>19967785809</v>
+        <v>21204930369</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2840,10 +2840,10 @@
         <v>241</v>
       </c>
       <c r="F49">
-        <v>-0.009897244220092971</v>
+        <v>0.01555911244746322</v>
       </c>
       <c r="G49">
-        <v>33748230056</v>
+        <v>19967785809</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2863,10 +2863,10 @@
         <v>246</v>
       </c>
       <c r="F50">
-        <v>0.03839517605661147</v>
+        <v>-0.009897244220092971</v>
       </c>
       <c r="G50">
-        <v>34439527442</v>
+        <v>33748230056</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2886,10 +2886,10 @@
         <v>251</v>
       </c>
       <c r="F51">
-        <v>0.008161463519797962</v>
+        <v>0.03839517605661147</v>
       </c>
       <c r="G51">
-        <v>34488018367</v>
+        <v>34439527442</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2909,10 +2909,10 @@
         <v>256</v>
       </c>
       <c r="F52">
-        <v>-0.06108671329531046</v>
+        <v>0.008161463519797962</v>
       </c>
       <c r="G52">
-        <v>50705240709</v>
+        <v>34488018367</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2932,10 +2932,10 @@
         <v>261</v>
       </c>
       <c r="F53">
-        <v>-0.02286914695522324</v>
+        <v>-0.06108671329531046</v>
       </c>
       <c r="G53">
-        <v>34873527352</v>
+        <v>50705240709</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2955,10 +2955,10 @@
         <v>266</v>
       </c>
       <c r="F54">
-        <v>0.02420561226420981</v>
+        <v>-0.02286914695522324</v>
       </c>
       <c r="G54">
-        <v>20050941373</v>
+        <v>34873527352</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2978,10 +2978,10 @@
         <v>271</v>
       </c>
       <c r="F55">
-        <v>-0.003550270327764893</v>
+        <v>0.02420561226420981</v>
       </c>
       <c r="G55">
-        <v>17130241883</v>
+        <v>20050941373</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3001,10 +3001,10 @@
         <v>276</v>
       </c>
       <c r="F56">
-        <v>-0.01204284679063194</v>
+        <v>-0.003550270327764893</v>
       </c>
       <c r="G56">
-        <v>25230851763</v>
+        <v>17130241883</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3024,10 +3024,10 @@
         <v>281</v>
       </c>
       <c r="F57">
-        <v>0.01860515603676394</v>
+        <v>-0.01204284679063194</v>
       </c>
       <c r="G57">
-        <v>34374900617</v>
+        <v>25230851763</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3047,10 +3047,10 @@
         <v>286</v>
       </c>
       <c r="F58">
-        <v>-0.007665954202903835</v>
+        <v>0.01860515603676394</v>
       </c>
       <c r="G58">
-        <v>40827113309</v>
+        <v>34374900617</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3070,10 +3070,10 @@
         <v>291</v>
       </c>
       <c r="F59">
-        <v>0.000808047187363492</v>
+        <v>-0.007665954202903835</v>
       </c>
       <c r="G59">
-        <v>36010437368</v>
+        <v>40827113309</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3093,10 +3093,10 @@
         <v>296</v>
       </c>
       <c r="F60">
-        <v>0.04052584928312508</v>
+        <v>0.000808047187363492</v>
       </c>
       <c r="G60">
-        <v>42700139523</v>
+        <v>36010437368</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3116,10 +3116,10 @@
         <v>301</v>
       </c>
       <c r="F61">
-        <v>0.04937382153550351</v>
+        <v>0.04052584928312508</v>
       </c>
       <c r="G61">
-        <v>27206630673</v>
+        <v>42700139523</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3139,10 +3139,10 @@
         <v>306</v>
       </c>
       <c r="F62">
-        <v>0.004066918435425171</v>
+        <v>0.04937382153550351</v>
       </c>
       <c r="G62">
-        <v>24738964812</v>
+        <v>27206630673</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3162,10 +3162,10 @@
         <v>311</v>
       </c>
       <c r="F63">
-        <v>-0.02612871898247804</v>
+        <v>0.004066918435425171</v>
       </c>
       <c r="G63">
-        <v>41401116964</v>
+        <v>24738964812</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3185,10 +3185,10 @@
         <v>316</v>
       </c>
       <c r="F64">
-        <v>-0.03563744359039889</v>
+        <v>-0.02612871898247804</v>
       </c>
       <c r="G64">
-        <v>44480350565</v>
+        <v>41401116964</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3208,10 +3208,10 @@
         <v>321</v>
       </c>
       <c r="F65">
-        <v>0.09661715692829365</v>
+        <v>-0.03563744359039889</v>
       </c>
       <c r="G65">
-        <v>66792634382</v>
+        <v>44480350565</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3231,10 +3231,10 @@
         <v>326</v>
       </c>
       <c r="F66">
-        <v>-0.08353585588774315</v>
+        <v>0.09661715692829365</v>
       </c>
       <c r="G66">
-        <v>74215844794</v>
+        <v>66792634382</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3254,10 +3254,10 @@
         <v>331</v>
       </c>
       <c r="F67">
-        <v>-0.01203298579359124</v>
+        <v>-0.08353585588774315</v>
       </c>
       <c r="G67">
-        <v>49261579492</v>
+        <v>74215844794</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3277,10 +3277,10 @@
         <v>336</v>
       </c>
       <c r="F68">
-        <v>0.04706756492321262</v>
+        <v>-0.01203298579359124</v>
       </c>
       <c r="G68">
-        <v>44716864318</v>
+        <v>49261579492</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3300,10 +3300,10 @@
         <v>341</v>
       </c>
       <c r="F69">
-        <v>-0.0587580517360603</v>
+        <v>0.04706756492321262</v>
       </c>
       <c r="G69">
-        <v>46842198371</v>
+        <v>44716864318</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3323,10 +3323,10 @@
         <v>346</v>
       </c>
       <c r="F70">
-        <v>-0.02779325707621916</v>
+        <v>-0.0587580517360603</v>
       </c>
       <c r="G70">
-        <v>78320453976</v>
+        <v>46842198371</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3346,10 +3346,10 @@
         <v>351</v>
       </c>
       <c r="F71">
-        <v>-0.02302676028633255</v>
+        <v>-0.02779325707621916</v>
       </c>
       <c r="G71">
-        <v>59594605698</v>
+        <v>78320453976</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3369,10 +3369,10 @@
         <v>356</v>
       </c>
       <c r="F72">
-        <v>0.02240256549464403</v>
+        <v>-0.02302676028633255</v>
       </c>
       <c r="G72">
-        <v>48212536929</v>
+        <v>59594605698</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3392,10 +3392,10 @@
         <v>361</v>
       </c>
       <c r="F73">
-        <v>-0.008926652633184262</v>
+        <v>0.02240256549464403</v>
       </c>
       <c r="G73">
-        <v>62554434520</v>
+        <v>48212536929</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3415,10 +3415,10 @@
         <v>366</v>
       </c>
       <c r="F74">
-        <v>0.04496283375761068</v>
+        <v>-0.008926652633184262</v>
       </c>
       <c r="G74">
-        <v>65716656765</v>
+        <v>62554434520</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3438,10 +3438,10 @@
         <v>371</v>
       </c>
       <c r="F75">
-        <v>0.007584369264978186</v>
+        <v>0.04496283375761068</v>
       </c>
       <c r="G75">
-        <v>35683977532</v>
+        <v>65716656765</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3461,10 +3461,10 @@
         <v>376</v>
       </c>
       <c r="F76">
-        <v>0.002922798964325013</v>
+        <v>0.007584369264978186</v>
       </c>
       <c r="G76">
-        <v>21609650379</v>
+        <v>35683977532</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3484,10 +3484,10 @@
         <v>381</v>
       </c>
       <c r="F77">
-        <v>0.02034715845190926</v>
+        <v>0.002922798964325013</v>
       </c>
       <c r="G77">
-        <v>59202881172</v>
+        <v>21609650379</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3507,10 +3507,10 @@
         <v>386</v>
       </c>
       <c r="F78">
-        <v>0.01249236622816818</v>
+        <v>0.02034715845190926</v>
       </c>
       <c r="G78">
-        <v>46989543159</v>
+        <v>59202881172</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3530,10 +3530,10 @@
         <v>391</v>
       </c>
       <c r="F79">
-        <v>0.03654591148962116</v>
+        <v>0.01249236622816818</v>
       </c>
       <c r="G79">
-        <v>68750229073</v>
+        <v>46989543159</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3553,10 +3553,10 @@
         <v>396</v>
       </c>
       <c r="F80">
-        <v>-0.06642940308319756</v>
+        <v>0.03654591148962116</v>
       </c>
       <c r="G80">
-        <v>102802940877</v>
+        <v>68750229073</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3576,10 +3576,10 @@
         <v>401</v>
       </c>
       <c r="F81">
-        <v>0.08225620215891283</v>
+        <v>-0.06642940308319756</v>
       </c>
       <c r="G81">
-        <v>70670471105</v>
+        <v>102802940877</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3599,10 +3599,10 @@
         <v>406</v>
       </c>
       <c r="F82">
-        <v>0.01830991574503016</v>
+        <v>0.08225620215891283</v>
       </c>
       <c r="G82">
-        <v>26253811450</v>
+        <v>70670471105</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3622,10 +3622,10 @@
         <v>411</v>
       </c>
       <c r="F83">
-        <v>-0.006435913081173195</v>
+        <v>0.01830991574503016</v>
       </c>
       <c r="G83">
-        <v>23888473685</v>
+        <v>26253811450</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3645,10 +3645,10 @@
         <v>416</v>
       </c>
       <c r="F84">
-        <v>0.02080448948338032</v>
+        <v>-0.006435913081173195</v>
       </c>
       <c r="G84">
-        <v>40186368423</v>
+        <v>23888473685</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3668,10 +3668,10 @@
         <v>421</v>
       </c>
       <c r="F85">
-        <v>-0.02081308436683138</v>
+        <v>0.02080448948338032</v>
       </c>
       <c r="G85">
-        <v>65496611844</v>
+        <v>40186368423</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3691,10 +3691,10 @@
         <v>426</v>
       </c>
       <c r="F86">
-        <v>0.09520916243370592</v>
+        <v>-0.02081308436683138</v>
       </c>
       <c r="G86">
-        <v>83239156760</v>
+        <v>65496611844</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3714,10 +3714,10 @@
         <v>431</v>
       </c>
       <c r="F87">
-        <v>0.04706599011023771</v>
+        <v>0.09520916243370592</v>
       </c>
       <c r="G87">
-        <v>49756832031</v>
+        <v>83239156760</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3737,10 +3737,10 @@
         <v>436</v>
       </c>
       <c r="F88">
-        <v>0.0539693444446796</v>
+        <v>0.04706599011023771</v>
       </c>
       <c r="G88">
-        <v>34074411896</v>
+        <v>49756832031</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3760,10 +3760,10 @@
         <v>441</v>
       </c>
       <c r="F89">
-        <v>0.003258464790815152</v>
+        <v>0.0539693444446796</v>
       </c>
       <c r="G89">
-        <v>15413239245</v>
+        <v>34074411896</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3783,10 +3783,10 @@
         <v>446</v>
       </c>
       <c r="F90">
-        <v>0.01645230928032815</v>
+        <v>0.003258464790815152</v>
       </c>
       <c r="G90">
-        <v>15174077879</v>
+        <v>15413239245</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3806,10 +3806,10 @@
         <v>451</v>
       </c>
       <c r="F91">
-        <v>-0.01076277279482774</v>
+        <v>0.01645230928032815</v>
       </c>
       <c r="G91">
-        <v>21427078270</v>
+        <v>15174077879</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3829,10 +3829,10 @@
         <v>456</v>
       </c>
       <c r="F92">
-        <v>-0.01060024381560254</v>
+        <v>-0.01076277279482774</v>
       </c>
       <c r="G92">
-        <v>25413900611</v>
+        <v>21427078270</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3852,10 +3852,10 @@
         <v>461</v>
       </c>
       <c r="F93">
-        <v>-0.008309280531797802</v>
+        <v>-0.01060024381560254</v>
       </c>
       <c r="G93">
-        <v>28624907020</v>
+        <v>25413900611</v>
       </c>
     </row>
   </sheetData>

--- a/crypto_grabber/btcusd.xlsx
+++ b/crypto_grabber/btcusd.xlsx
@@ -40,19 +40,49 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>67944.320313</t>
+  </si>
+  <si>
+    <t>68705.289063</t>
+  </si>
+  <si>
+    <t>66686.718750</t>
+  </si>
+  <si>
+    <t>68622.140625</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>69121.304688</t>
+  </si>
+  <si>
+    <t>70041.273438</t>
+  </si>
+  <si>
+    <t>66356.953125</t>
+  </si>
+  <si>
+    <t>67929.562500</t>
+  </si>
+  <si>
     <t>2024-05-22</t>
   </si>
   <si>
-    <t>70141.843750</t>
-  </si>
-  <si>
-    <t>70516.140625</t>
-  </si>
-  <si>
-    <t>69323.835938</t>
-  </si>
-  <si>
-    <t>70448.203125</t>
+    <t>70135.320313</t>
+  </si>
+  <si>
+    <t>70623.695313</t>
+  </si>
+  <si>
+    <t>68977.695313</t>
+  </si>
+  <si>
+    <t>69122.335938</t>
   </si>
   <si>
     <t>2024-05-21</t>
@@ -1370,36 +1400,6 @@
   </si>
   <si>
     <t>51571.101563</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
-  </si>
-  <si>
-    <t>51283.906250</t>
-  </si>
-  <si>
-    <t>51497.933594</t>
-  </si>
-  <si>
-    <t>50561.777344</t>
-  </si>
-  <si>
-    <t>50731.949219</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>51854.644531</t>
-  </si>
-  <si>
-    <t>52009.613281</t>
-  </si>
-  <si>
-    <t>50926.292969</t>
-  </si>
-  <si>
-    <t>51304.972656</t>
   </si>
 </sst>
 </file>
@@ -1782,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>0.004367712033517712</v>
+        <v>0.009976114395986002</v>
       </c>
       <c r="G3">
-        <v>33474525184</v>
+        <v>39284387840</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1805,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>-0.01828772737730833</v>
+        <v>-0.01724131500959503</v>
       </c>
       <c r="G4">
-        <v>46932005990</v>
+        <v>41895680979</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1828,10 +1828,10 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>0.07799564316318519</v>
+        <v>-0.01444328436056541</v>
       </c>
       <c r="G5">
-        <v>43850655717</v>
+        <v>32802561717</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1851,10 +1851,10 @@
         <v>27</v>
       </c>
       <c r="F6">
-        <v>-0.009853344778875672</v>
+        <v>-0.01828772737730833</v>
       </c>
       <c r="G6">
-        <v>19249094538</v>
+        <v>46932005990</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1874,10 +1874,10 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>-0.001869887209163146</v>
+        <v>0.07799564316318519</v>
       </c>
       <c r="G7">
-        <v>16712277406</v>
+        <v>43850655717</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1897,10 +1897,10 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>0.02790958040415314</v>
+        <v>-0.009853344778875672</v>
       </c>
       <c r="G8">
-        <v>28031279310</v>
+        <v>19249094538</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1920,10 +1920,10 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>-0.01546313771913965</v>
+        <v>-0.001869887209163146</v>
       </c>
       <c r="G9">
-        <v>31573077994</v>
+        <v>16712277406</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1943,10 +1943,10 @@
         <v>47</v>
       </c>
       <c r="F10">
-        <v>0.07657511785397886</v>
+        <v>0.02790958040415314</v>
       </c>
       <c r="G10">
-        <v>39815167074</v>
+        <v>28031279310</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1966,10 +1966,10 @@
         <v>52</v>
       </c>
       <c r="F11">
-        <v>-0.0214303306831144</v>
+        <v>-0.01546313771913965</v>
       </c>
       <c r="G11">
-        <v>28186271527</v>
+        <v>31573077994</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1989,10 +1989,10 @@
         <v>57</v>
       </c>
       <c r="F12">
-        <v>0.02359970230858921</v>
+        <v>0.07657511785397886</v>
       </c>
       <c r="G12">
-        <v>27889181179</v>
+        <v>39815167074</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2012,10 +2012,10 @@
         <v>62</v>
       </c>
       <c r="F13">
-        <v>0.01077237834510414</v>
+        <v>-0.0214303306831144</v>
       </c>
       <c r="G13">
-        <v>13800459405</v>
+        <v>28186271527</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2035,10 +2035,10 @@
         <v>67</v>
       </c>
       <c r="F14">
-        <v>5.847168613293263E-06</v>
+        <v>0.02359970230858921</v>
       </c>
       <c r="G14">
-        <v>13842272968</v>
+        <v>27889181179</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2058,10 +2058,10 @@
         <v>72</v>
       </c>
       <c r="F15">
-        <v>-0.03587990158387999</v>
+        <v>0.01077237834510414</v>
       </c>
       <c r="G15">
-        <v>27804954694</v>
+        <v>13800459405</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2081,10 +2081,10 @@
         <v>77</v>
       </c>
       <c r="F16">
-        <v>0.0303762917335153</v>
+        <v>5.847168613293263E-06</v>
       </c>
       <c r="G16">
-        <v>25453338161</v>
+        <v>13842272968</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2104,10 +2104,10 @@
         <v>82</v>
       </c>
       <c r="F17">
-        <v>-0.01836436267615615</v>
+        <v>-0.03587990158387999</v>
       </c>
       <c r="G17">
-        <v>26088172222</v>
+        <v>27804954694</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2127,10 +2127,10 @@
         <v>87</v>
       </c>
       <c r="F18">
-        <v>-0.01310812400324401</v>
+        <v>0.0303762917335153</v>
       </c>
       <c r="G18">
-        <v>25930730982</v>
+        <v>25453338161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2150,10 +2150,10 @@
         <v>92</v>
       </c>
       <c r="F19">
-        <v>-0.01368498398517293</v>
+        <v>-0.01836436267615615</v>
       </c>
       <c r="G19">
-        <v>28697928697</v>
+        <v>26088172222</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2173,10 +2173,10 @@
         <v>97</v>
       </c>
       <c r="F20">
-        <v>0.002170517505857505</v>
+        <v>-0.01310812400324401</v>
       </c>
       <c r="G20">
-        <v>18296164805</v>
+        <v>25930730982</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2196,10 +2196,10 @@
         <v>102</v>
       </c>
       <c r="F21">
-        <v>0.01590753699081682</v>
+        <v>-0.01368498398517293</v>
       </c>
       <c r="G21">
-        <v>20620477992</v>
+        <v>28697928697</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2219,10 +2219,10 @@
         <v>107</v>
       </c>
       <c r="F22">
-        <v>0.06372443404994765</v>
+        <v>0.002170517505857505</v>
       </c>
       <c r="G22">
-        <v>33172023048</v>
+        <v>18296164805</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2242,10 +2242,10 @@
         <v>112</v>
       </c>
       <c r="F23">
-        <v>0.01493004602872627</v>
+        <v>0.01590753699081682</v>
       </c>
       <c r="G23">
-        <v>32711813559</v>
+        <v>20620477992</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2265,10 +2265,10 @@
         <v>117</v>
       </c>
       <c r="F24">
-        <v>-0.03886328920053794</v>
+        <v>0.06372443404994765</v>
       </c>
       <c r="G24">
-        <v>48439780271</v>
+        <v>33172023048</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2288,10 +2288,10 @@
         <v>122</v>
       </c>
       <c r="F25">
-        <v>-0.05016591005818916</v>
+        <v>0.01493004602872627</v>
       </c>
       <c r="G25">
-        <v>37840840057</v>
+        <v>32711813559</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2311,10 +2311,10 @@
         <v>127</v>
       </c>
       <c r="F26">
-        <v>0.01164316520234698</v>
+        <v>-0.03886328920053794</v>
       </c>
       <c r="G26">
-        <v>26635912073</v>
+        <v>48439780271</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2334,10 +2334,10 @@
         <v>132</v>
       </c>
       <c r="F27">
-        <v>-0.004892273046398166</v>
+        <v>-0.05016591005818916</v>
       </c>
       <c r="G27">
-        <v>17334827993</v>
+        <v>37840840057</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2357,10 +2357,10 @@
         <v>137</v>
       </c>
       <c r="F28">
-        <v>-0.005205372731435731</v>
+        <v>0.01164316520234698</v>
       </c>
       <c r="G28">
-        <v>19530783039</v>
+        <v>26635912073</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2380,10 +2380,10 @@
         <v>142</v>
       </c>
       <c r="F29">
-        <v>-0.01132118445803487</v>
+        <v>-0.004892273046398166</v>
       </c>
       <c r="G29">
-        <v>24139372950</v>
+        <v>17334827993</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2403,10 +2403,10 @@
         <v>147</v>
       </c>
       <c r="F30">
-        <v>0.003215673857560164</v>
+        <v>-0.005205372731435731</v>
       </c>
       <c r="G30">
-        <v>32155786816</v>
+        <v>19530783039</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2426,10 +2426,10 @@
         <v>152</v>
       </c>
       <c r="F31">
-        <v>-0.03210151245389004</v>
+        <v>-0.01132118445803487</v>
       </c>
       <c r="G31">
-        <v>30276655120</v>
+        <v>24139372950</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2449,10 +2449,10 @@
         <v>157</v>
       </c>
       <c r="F32">
-        <v>-0.006472440079639874</v>
+        <v>0.003215673857560164</v>
       </c>
       <c r="G32">
-        <v>24310975583</v>
+        <v>32155786816</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2472,10 +2472,10 @@
         <v>162</v>
       </c>
       <c r="F33">
-        <v>0.02929126571350249</v>
+        <v>-0.03210151245389004</v>
       </c>
       <c r="G33">
-        <v>28282686673</v>
+        <v>30276655120</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2495,10 +2495,10 @@
         <v>167</v>
       </c>
       <c r="F34">
-        <v>-0.001018141367911118</v>
+        <v>-0.006472440079639874</v>
       </c>
       <c r="G34">
-        <v>20506644853</v>
+        <v>24310975583</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2518,10 +2518,10 @@
         <v>172</v>
       </c>
       <c r="F35">
-        <v>0.01790634483998521</v>
+        <v>0.02929126571350249</v>
       </c>
       <c r="G35">
-        <v>23097485495</v>
+        <v>28282686673</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2541,10 +2541,10 @@
         <v>177</v>
       </c>
       <c r="F36">
-        <v>0.005240377621111403</v>
+        <v>-0.001018141367911118</v>
       </c>
       <c r="G36">
-        <v>49920425401</v>
+        <v>20506644853</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2564,10 +2564,10 @@
         <v>182</v>
       </c>
       <c r="F37">
-        <v>0.03651449933240847</v>
+        <v>0.01790634483998521</v>
       </c>
       <c r="G37">
-        <v>36006307335</v>
+        <v>23097485495</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2587,10 +2587,10 @@
         <v>187</v>
       </c>
       <c r="F38">
-        <v>-0.04002948910033355</v>
+        <v>0.005240377621111403</v>
       </c>
       <c r="G38">
-        <v>41915247049</v>
+        <v>49920425401</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2610,10 +2610,10 @@
         <v>192</v>
       </c>
       <c r="F39">
-        <v>0.006190015111232627</v>
+        <v>0.03651449933240847</v>
       </c>
       <c r="G39">
-        <v>42847528078</v>
+        <v>36006307335</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2633,10 +2633,10 @@
         <v>197</v>
       </c>
       <c r="F40">
-        <v>-0.03519090160912319</v>
+        <v>-0.04002948910033355</v>
       </c>
       <c r="G40">
-        <v>43595917654</v>
+        <v>41915247049</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2656,10 +2656,10 @@
         <v>202</v>
       </c>
       <c r="F41">
-        <v>0.02980276372872437</v>
+        <v>0.006190015111232627</v>
       </c>
       <c r="G41">
-        <v>49084320047</v>
+        <v>42847528078</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2679,10 +2679,10 @@
         <v>207</v>
       </c>
       <c r="F42">
-        <v>-0.05011138227409129</v>
+        <v>-0.03519090160912319</v>
       </c>
       <c r="G42">
-        <v>52869738185</v>
+        <v>43595917654</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2702,10 +2702,10 @@
         <v>212</v>
       </c>
       <c r="F43">
-        <v>-0.04090007233583037</v>
+        <v>0.02980276372872437</v>
       </c>
       <c r="G43">
-        <v>44129299406</v>
+        <v>49084320047</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2725,10 +2725,10 @@
         <v>217</v>
       </c>
       <c r="F44">
-        <v>-0.007298896774674879</v>
+        <v>-0.05011138227409129</v>
       </c>
       <c r="G44">
-        <v>30153382941</v>
+        <v>52869738185</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2748,10 +2748,10 @@
         <v>222</v>
       </c>
       <c r="F45">
-        <v>0.02093774304497953</v>
+        <v>-0.04090007233583037</v>
       </c>
       <c r="G45">
-        <v>38318601774</v>
+        <v>44129299406</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2771,10 +2771,10 @@
         <v>227</v>
       </c>
       <c r="F46">
-        <v>-0.03480940041182423</v>
+        <v>-0.007298896774674879</v>
       </c>
       <c r="G46">
-        <v>36426900409</v>
+        <v>30153382941</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2794,10 +2794,10 @@
         <v>232</v>
       </c>
       <c r="F47">
-        <v>0.03270935877730152</v>
+        <v>0.02093774304497953</v>
       </c>
       <c r="G47">
-        <v>37261432669</v>
+        <v>38318601774</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2814,59 +2814,59 @@
         <v>236</v>
       </c>
       <c r="E48" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F48">
-        <v>0.006755658070741966</v>
+        <v>-0.03480940041182423</v>
       </c>
       <c r="G48">
-        <v>21204930369</v>
+        <v>36426900409</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F49">
-        <v>0.01555911244746322</v>
+        <v>0.03270935877730152</v>
       </c>
       <c r="G49">
-        <v>19967785809</v>
+        <v>37261432669</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F50">
-        <v>-0.009897244220092971</v>
+        <v>0.006755658070741966</v>
       </c>
       <c r="G50">
-        <v>33748230056</v>
+        <v>21204930369</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2886,10 +2886,10 @@
         <v>251</v>
       </c>
       <c r="F51">
-        <v>0.03839517605661147</v>
+        <v>0.01555911244746322</v>
       </c>
       <c r="G51">
-        <v>34439527442</v>
+        <v>19967785809</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2909,10 +2909,10 @@
         <v>256</v>
       </c>
       <c r="F52">
-        <v>0.008161463519797962</v>
+        <v>-0.009897244220092971</v>
       </c>
       <c r="G52">
-        <v>34488018367</v>
+        <v>33748230056</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2932,10 +2932,10 @@
         <v>261</v>
       </c>
       <c r="F53">
-        <v>-0.06108671329531046</v>
+        <v>0.03839517605661147</v>
       </c>
       <c r="G53">
-        <v>50705240709</v>
+        <v>34439527442</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2955,10 +2955,10 @@
         <v>266</v>
       </c>
       <c r="F54">
-        <v>-0.02286914695522324</v>
+        <v>0.008161463519797962</v>
       </c>
       <c r="G54">
-        <v>34873527352</v>
+        <v>34488018367</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2978,10 +2978,10 @@
         <v>271</v>
       </c>
       <c r="F55">
-        <v>0.02420561226420981</v>
+        <v>-0.06108671329531046</v>
       </c>
       <c r="G55">
-        <v>20050941373</v>
+        <v>50705240709</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3001,10 +3001,10 @@
         <v>276</v>
       </c>
       <c r="F56">
-        <v>-0.003550270327764893</v>
+        <v>-0.02286914695522324</v>
       </c>
       <c r="G56">
-        <v>17130241883</v>
+        <v>34873527352</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3024,10 +3024,10 @@
         <v>281</v>
       </c>
       <c r="F57">
-        <v>-0.01204284679063194</v>
+        <v>0.02420561226420981</v>
       </c>
       <c r="G57">
-        <v>25230851763</v>
+        <v>20050941373</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3047,10 +3047,10 @@
         <v>286</v>
       </c>
       <c r="F58">
-        <v>0.01860515603676394</v>
+        <v>-0.003550270327764893</v>
       </c>
       <c r="G58">
-        <v>34374900617</v>
+        <v>17130241883</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3070,10 +3070,10 @@
         <v>291</v>
       </c>
       <c r="F59">
-        <v>-0.007665954202903835</v>
+        <v>-0.01204284679063194</v>
       </c>
       <c r="G59">
-        <v>40827113309</v>
+        <v>25230851763</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3093,10 +3093,10 @@
         <v>296</v>
       </c>
       <c r="F60">
-        <v>0.000808047187363492</v>
+        <v>0.01860515603676394</v>
       </c>
       <c r="G60">
-        <v>36010437368</v>
+        <v>34374900617</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3116,10 +3116,10 @@
         <v>301</v>
       </c>
       <c r="F61">
-        <v>0.04052584928312508</v>
+        <v>-0.007665954202903835</v>
       </c>
       <c r="G61">
-        <v>42700139523</v>
+        <v>40827113309</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3139,10 +3139,10 @@
         <v>306</v>
       </c>
       <c r="F62">
-        <v>0.04937382153550351</v>
+        <v>0.000808047187363492</v>
       </c>
       <c r="G62">
-        <v>27206630673</v>
+        <v>36010437368</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3162,10 +3162,10 @@
         <v>311</v>
       </c>
       <c r="F63">
-        <v>0.004066918435425171</v>
+        <v>0.04052584928312508</v>
       </c>
       <c r="G63">
-        <v>24738964812</v>
+        <v>42700139523</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3185,10 +3185,10 @@
         <v>316</v>
       </c>
       <c r="F64">
-        <v>-0.02612871898247804</v>
+        <v>0.04937382153550351</v>
       </c>
       <c r="G64">
-        <v>41401116964</v>
+        <v>27206630673</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3208,10 +3208,10 @@
         <v>321</v>
       </c>
       <c r="F65">
-        <v>-0.03563744359039889</v>
+        <v>0.004066918435425171</v>
       </c>
       <c r="G65">
-        <v>44480350565</v>
+        <v>24738964812</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3231,10 +3231,10 @@
         <v>326</v>
       </c>
       <c r="F66">
-        <v>0.09661715692829365</v>
+        <v>-0.02612871898247804</v>
       </c>
       <c r="G66">
-        <v>66792634382</v>
+        <v>41401116964</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3254,10 +3254,10 @@
         <v>331</v>
       </c>
       <c r="F67">
-        <v>-0.08353585588774315</v>
+        <v>-0.03563744359039889</v>
       </c>
       <c r="G67">
-        <v>74215844794</v>
+        <v>44480350565</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3277,10 +3277,10 @@
         <v>336</v>
       </c>
       <c r="F68">
-        <v>-0.01203298579359124</v>
+        <v>0.09661715692829365</v>
       </c>
       <c r="G68">
-        <v>49261579492</v>
+        <v>66792634382</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3300,10 +3300,10 @@
         <v>341</v>
       </c>
       <c r="F69">
-        <v>0.04706756492321262</v>
+        <v>-0.08353585588774315</v>
       </c>
       <c r="G69">
-        <v>44716864318</v>
+        <v>74215844794</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3323,10 +3323,10 @@
         <v>346</v>
       </c>
       <c r="F70">
-        <v>-0.0587580517360603</v>
+        <v>-0.01203298579359124</v>
       </c>
       <c r="G70">
-        <v>46842198371</v>
+        <v>49261579492</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3346,10 +3346,10 @@
         <v>351</v>
       </c>
       <c r="F71">
-        <v>-0.02779325707621916</v>
+        <v>0.04706756492321262</v>
       </c>
       <c r="G71">
-        <v>78320453976</v>
+        <v>44716864318</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3369,10 +3369,10 @@
         <v>356</v>
       </c>
       <c r="F72">
-        <v>-0.02302676028633255</v>
+        <v>-0.0587580517360603</v>
       </c>
       <c r="G72">
-        <v>59594605698</v>
+        <v>46842198371</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3392,10 +3392,10 @@
         <v>361</v>
       </c>
       <c r="F73">
-        <v>0.02240256549464403</v>
+        <v>-0.02779325707621916</v>
       </c>
       <c r="G73">
-        <v>48212536929</v>
+        <v>78320453976</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3415,10 +3415,10 @@
         <v>366</v>
       </c>
       <c r="F74">
-        <v>-0.008926652633184262</v>
+        <v>-0.02302676028633255</v>
       </c>
       <c r="G74">
-        <v>62554434520</v>
+        <v>59594605698</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3438,10 +3438,10 @@
         <v>371</v>
       </c>
       <c r="F75">
-        <v>0.04496283375761068</v>
+        <v>0.02240256549464403</v>
       </c>
       <c r="G75">
-        <v>65716656765</v>
+        <v>48212536929</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3461,10 +3461,10 @@
         <v>376</v>
       </c>
       <c r="F76">
-        <v>0.007584369264978186</v>
+        <v>-0.008926652633184262</v>
       </c>
       <c r="G76">
-        <v>35683977532</v>
+        <v>62554434520</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3484,10 +3484,10 @@
         <v>381</v>
       </c>
       <c r="F77">
-        <v>0.002922798964325013</v>
+        <v>0.04496283375761068</v>
       </c>
       <c r="G77">
-        <v>21609650379</v>
+        <v>65716656765</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3507,10 +3507,10 @@
         <v>386</v>
       </c>
       <c r="F78">
-        <v>0.02034715845190926</v>
+        <v>0.007584369264978186</v>
       </c>
       <c r="G78">
-        <v>59202881172</v>
+        <v>35683977532</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3530,10 +3530,10 @@
         <v>391</v>
       </c>
       <c r="F79">
-        <v>0.01249236622816818</v>
+        <v>0.002922798964325013</v>
       </c>
       <c r="G79">
-        <v>46989543159</v>
+        <v>21609650379</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3553,10 +3553,10 @@
         <v>396</v>
       </c>
       <c r="F80">
-        <v>0.03654591148962116</v>
+        <v>0.02034715845190926</v>
       </c>
       <c r="G80">
-        <v>68750229073</v>
+        <v>59202881172</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3576,10 +3576,10 @@
         <v>401</v>
       </c>
       <c r="F81">
-        <v>-0.06642940308319756</v>
+        <v>0.01249236622816818</v>
       </c>
       <c r="G81">
-        <v>102802940877</v>
+        <v>46989543159</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3599,10 +3599,10 @@
         <v>406</v>
       </c>
       <c r="F82">
-        <v>0.08225620215891283</v>
+        <v>0.03654591148962116</v>
       </c>
       <c r="G82">
-        <v>70670471105</v>
+        <v>68750229073</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3622,10 +3622,10 @@
         <v>411</v>
       </c>
       <c r="F83">
-        <v>0.01830991574503016</v>
+        <v>-0.06642940308319756</v>
       </c>
       <c r="G83">
-        <v>26253811450</v>
+        <v>102802940877</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3645,10 +3645,10 @@
         <v>416</v>
       </c>
       <c r="F84">
-        <v>-0.006435913081173195</v>
+        <v>0.08225620215891283</v>
       </c>
       <c r="G84">
-        <v>23888473685</v>
+        <v>70670471105</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3668,10 +3668,10 @@
         <v>421</v>
       </c>
       <c r="F85">
-        <v>0.02080448948338032</v>
+        <v>0.01830991574503016</v>
       </c>
       <c r="G85">
-        <v>40186368423</v>
+        <v>26253811450</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3691,10 +3691,10 @@
         <v>426</v>
       </c>
       <c r="F86">
-        <v>-0.02081308436683138</v>
+        <v>-0.006435913081173195</v>
       </c>
       <c r="G86">
-        <v>65496611844</v>
+        <v>23888473685</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3714,10 +3714,10 @@
         <v>431</v>
       </c>
       <c r="F87">
-        <v>0.09520916243370592</v>
+        <v>0.02080448948338032</v>
       </c>
       <c r="G87">
-        <v>83239156760</v>
+        <v>40186368423</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3737,10 +3737,10 @@
         <v>436</v>
       </c>
       <c r="F88">
-        <v>0.04706599011023771</v>
+        <v>-0.02081308436683138</v>
       </c>
       <c r="G88">
-        <v>49756832031</v>
+        <v>65496611844</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3760,10 +3760,10 @@
         <v>441</v>
       </c>
       <c r="F89">
-        <v>0.0539693444446796</v>
+        <v>0.09520916243370592</v>
       </c>
       <c r="G89">
-        <v>34074411896</v>
+        <v>83239156760</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3783,10 +3783,10 @@
         <v>446</v>
       </c>
       <c r="F90">
-        <v>0.003258464790815152</v>
+        <v>0.04706599011023771</v>
       </c>
       <c r="G90">
-        <v>15413239245</v>
+        <v>49756832031</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3806,10 +3806,10 @@
         <v>451</v>
       </c>
       <c r="F91">
-        <v>0.01645230928032815</v>
+        <v>0.0539693444446796</v>
       </c>
       <c r="G91">
-        <v>15174077879</v>
+        <v>34074411896</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3829,10 +3829,10 @@
         <v>456</v>
       </c>
       <c r="F92">
-        <v>-0.01076277279482774</v>
+        <v>0.003258464790815152</v>
       </c>
       <c r="G92">
-        <v>21427078270</v>
+        <v>15413239245</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3852,10 +3852,10 @@
         <v>461</v>
       </c>
       <c r="F93">
-        <v>-0.01060024381560254</v>
+        <v>0.01645230928032815</v>
       </c>
       <c r="G93">
-        <v>25413900611</v>
+        <v>15174077879</v>
       </c>
     </row>
   </sheetData>
